--- a/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
+++ b/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="213">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>January</t>
@@ -649,7 +652,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:28:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:04:54</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1562,6 +1565,54 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1858,6 +1909,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2166,6 +2265,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2176,6 +2323,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2507,321 +2702,371 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="171">
+      <c r="A5" t="s" s="195">
         <v>4</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" t="s" s="173">
+      <c r="B5" s="196"/>
+      <c r="C5" t="s" s="197">
         <v>5</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="184"/>
-      <c r="O5" t="s" s="185">
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="208"/>
+      <c r="O5" t="s" s="209">
         <v>6</v>
       </c>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="189"/>
-      <c r="T5" s="190"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="196"/>
-      <c r="AA5" t="s" s="197">
+      <c r="P5" s="210"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="214"/>
+      <c r="U5" s="215"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="218"/>
+      <c r="Y5" s="219"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" t="s" s="221">
         <v>7</v>
       </c>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="199"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="205"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="207"/>
-      <c r="AL5" s="208"/>
-      <c r="AM5" t="s" s="209">
+      <c r="AB5" s="222"/>
+      <c r="AC5" s="223"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="225"/>
+      <c r="AF5" s="226"/>
+      <c r="AG5" s="227"/>
+      <c r="AH5" s="228"/>
+      <c r="AI5" s="229"/>
+      <c r="AJ5" s="230"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="232"/>
+      <c r="AM5" t="s" s="233">
         <v>8</v>
       </c>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="213"/>
-      <c r="AR5" s="214"/>
-      <c r="AS5" s="215"/>
-      <c r="AT5" s="216"/>
-      <c r="AU5" s="217"/>
-      <c r="AV5" s="218"/>
-      <c r="AW5" s="219"/>
-      <c r="AX5" s="220"/>
-      <c r="AY5" t="s" s="221">
+      <c r="AN5" s="234"/>
+      <c r="AO5" s="235"/>
+      <c r="AP5" s="236"/>
+      <c r="AQ5" s="237"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="239"/>
+      <c r="AT5" s="240"/>
+      <c r="AU5" s="241"/>
+      <c r="AV5" s="242"/>
+      <c r="AW5" s="243"/>
+      <c r="AX5" s="244"/>
+      <c r="AY5" t="s" s="245">
         <v>9</v>
       </c>
-      <c r="AZ5" s="222"/>
-      <c r="BA5" s="223"/>
-      <c r="BB5" s="224"/>
-      <c r="BC5" s="225"/>
-      <c r="BD5" s="226"/>
-      <c r="BE5" s="227"/>
-      <c r="BF5" s="228"/>
-      <c r="BG5" s="229"/>
-      <c r="BH5" s="230"/>
-      <c r="BI5" s="231"/>
-      <c r="BJ5" s="232"/>
-      <c r="BK5" t="s" s="233">
+      <c r="AZ5" s="246"/>
+      <c r="BA5" s="247"/>
+      <c r="BB5" s="248"/>
+      <c r="BC5" s="249"/>
+      <c r="BD5" s="250"/>
+      <c r="BE5" s="251"/>
+      <c r="BF5" s="252"/>
+      <c r="BG5" s="253"/>
+      <c r="BH5" s="254"/>
+      <c r="BI5" s="255"/>
+      <c r="BJ5" s="256"/>
+      <c r="BK5" t="s" s="257">
         <v>10</v>
       </c>
-      <c r="BL5" s="234"/>
-      <c r="BM5" s="235"/>
-      <c r="BN5" s="236"/>
-      <c r="BO5" s="237"/>
-      <c r="BP5" s="238"/>
-      <c r="BQ5" s="239"/>
-      <c r="BR5" s="240"/>
-      <c r="BS5" s="241"/>
-      <c r="BT5" s="242"/>
-      <c r="BU5" s="243"/>
-      <c r="BV5" s="244"/>
+      <c r="BL5" s="258"/>
+      <c r="BM5" s="259"/>
+      <c r="BN5" s="260"/>
+      <c r="BO5" s="261"/>
+      <c r="BP5" s="262"/>
+      <c r="BQ5" s="263"/>
+      <c r="BR5" s="264"/>
+      <c r="BS5" s="265"/>
+      <c r="BT5" s="266"/>
+      <c r="BU5" s="267"/>
+      <c r="BV5" s="268"/>
+      <c r="BW5" t="s" s="269">
+        <v>11</v>
+      </c>
+      <c r="BX5" s="270"/>
+      <c r="BY5" s="271"/>
+      <c r="BZ5" s="272"/>
+      <c r="CA5" s="273"/>
+      <c r="CB5" s="274"/>
+      <c r="CC5" s="275"/>
+      <c r="CD5" s="276"/>
+      <c r="CE5" s="277"/>
+      <c r="CF5" s="278"/>
+      <c r="CG5" s="279"/>
+      <c r="CH5" s="280"/>
     </row>
     <row r="6">
-      <c r="A6" s="245"/>
-      <c r="B6" s="246"/>
-      <c r="C6" t="s" s="247">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="248">
+      <c r="A6" s="281"/>
+      <c r="B6" s="282"/>
+      <c r="C6" t="s" s="283">
         <v>12</v>
       </c>
-      <c r="E6" t="s" s="249">
+      <c r="D6" t="s" s="284">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="250">
+      <c r="E6" t="s" s="285">
         <v>14</v>
       </c>
-      <c r="G6" t="s" s="251">
+      <c r="F6" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H6" t="s" s="252">
+      <c r="G6" t="s" s="287">
         <v>16</v>
       </c>
-      <c r="I6" t="s" s="253">
+      <c r="H6" t="s" s="288">
         <v>17</v>
       </c>
-      <c r="J6" t="s" s="254">
+      <c r="I6" t="s" s="289">
         <v>18</v>
       </c>
-      <c r="K6" t="s" s="255">
+      <c r="J6" t="s" s="290">
         <v>19</v>
       </c>
-      <c r="L6" t="s" s="256">
+      <c r="K6" t="s" s="291">
         <v>20</v>
       </c>
-      <c r="M6" t="s" s="257">
+      <c r="L6" t="s" s="292">
         <v>21</v>
       </c>
-      <c r="N6" t="s" s="258">
+      <c r="M6" t="s" s="293">
         <v>22</v>
       </c>
-      <c r="O6" t="s" s="259">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s" s="260">
+      <c r="N6" t="s" s="294">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s" s="295">
         <v>12</v>
       </c>
-      <c r="Q6" t="s" s="261">
+      <c r="P6" t="s" s="296">
         <v>13</v>
       </c>
-      <c r="R6" t="s" s="262">
+      <c r="Q6" t="s" s="297">
         <v>14</v>
       </c>
-      <c r="S6" t="s" s="263">
+      <c r="R6" t="s" s="298">
         <v>15</v>
       </c>
-      <c r="T6" t="s" s="264">
+      <c r="S6" t="s" s="299">
         <v>16</v>
       </c>
-      <c r="U6" t="s" s="265">
+      <c r="T6" t="s" s="300">
         <v>17</v>
       </c>
-      <c r="V6" t="s" s="266">
+      <c r="U6" t="s" s="301">
         <v>18</v>
       </c>
-      <c r="W6" t="s" s="267">
+      <c r="V6" t="s" s="302">
         <v>19</v>
       </c>
-      <c r="X6" t="s" s="268">
+      <c r="W6" t="s" s="303">
         <v>20</v>
       </c>
-      <c r="Y6" t="s" s="269">
+      <c r="X6" t="s" s="304">
         <v>21</v>
       </c>
-      <c r="Z6" t="s" s="270">
+      <c r="Y6" t="s" s="305">
         <v>22</v>
       </c>
-      <c r="AA6" t="s" s="271">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="s" s="272">
+      <c r="Z6" t="s" s="306">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="s" s="307">
         <v>12</v>
       </c>
-      <c r="AC6" t="s" s="273">
+      <c r="AB6" t="s" s="308">
         <v>13</v>
       </c>
-      <c r="AD6" t="s" s="274">
+      <c r="AC6" t="s" s="309">
         <v>14</v>
       </c>
-      <c r="AE6" t="s" s="275">
+      <c r="AD6" t="s" s="310">
         <v>15</v>
       </c>
-      <c r="AF6" t="s" s="276">
+      <c r="AE6" t="s" s="311">
         <v>16</v>
       </c>
-      <c r="AG6" t="s" s="277">
+      <c r="AF6" t="s" s="312">
         <v>17</v>
       </c>
-      <c r="AH6" t="s" s="278">
+      <c r="AG6" t="s" s="313">
         <v>18</v>
       </c>
-      <c r="AI6" t="s" s="279">
+      <c r="AH6" t="s" s="314">
         <v>19</v>
       </c>
-      <c r="AJ6" t="s" s="280">
+      <c r="AI6" t="s" s="315">
         <v>20</v>
       </c>
-      <c r="AK6" t="s" s="281">
+      <c r="AJ6" t="s" s="316">
         <v>21</v>
       </c>
-      <c r="AL6" t="s" s="282">
+      <c r="AK6" t="s" s="317">
         <v>22</v>
       </c>
-      <c r="AM6" t="s" s="283">
-        <v>11</v>
-      </c>
-      <c r="AN6" t="s" s="284">
+      <c r="AL6" t="s" s="318">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="s" s="319">
         <v>12</v>
       </c>
-      <c r="AO6" t="s" s="285">
+      <c r="AN6" t="s" s="320">
         <v>13</v>
       </c>
-      <c r="AP6" t="s" s="286">
+      <c r="AO6" t="s" s="321">
         <v>14</v>
       </c>
-      <c r="AQ6" t="s" s="287">
+      <c r="AP6" t="s" s="322">
         <v>15</v>
       </c>
-      <c r="AR6" t="s" s="288">
+      <c r="AQ6" t="s" s="323">
         <v>16</v>
       </c>
-      <c r="AS6" t="s" s="289">
+      <c r="AR6" t="s" s="324">
         <v>17</v>
       </c>
-      <c r="AT6" t="s" s="290">
+      <c r="AS6" t="s" s="325">
         <v>18</v>
       </c>
-      <c r="AU6" t="s" s="291">
+      <c r="AT6" t="s" s="326">
         <v>19</v>
       </c>
-      <c r="AV6" t="s" s="292">
+      <c r="AU6" t="s" s="327">
         <v>20</v>
       </c>
-      <c r="AW6" t="s" s="293">
+      <c r="AV6" t="s" s="328">
         <v>21</v>
       </c>
-      <c r="AX6" t="s" s="294">
+      <c r="AW6" t="s" s="329">
         <v>22</v>
       </c>
-      <c r="AY6" t="s" s="295">
-        <v>11</v>
-      </c>
-      <c r="AZ6" t="s" s="296">
+      <c r="AX6" t="s" s="330">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="s" s="331">
         <v>12</v>
       </c>
-      <c r="BA6" t="s" s="297">
+      <c r="AZ6" t="s" s="332">
         <v>13</v>
       </c>
-      <c r="BB6" t="s" s="298">
+      <c r="BA6" t="s" s="333">
         <v>14</v>
       </c>
-      <c r="BC6" t="s" s="299">
+      <c r="BB6" t="s" s="334">
         <v>15</v>
       </c>
-      <c r="BD6" t="s" s="300">
+      <c r="BC6" t="s" s="335">
         <v>16</v>
       </c>
-      <c r="BE6" t="s" s="301">
+      <c r="BD6" t="s" s="336">
         <v>17</v>
       </c>
-      <c r="BF6" t="s" s="302">
+      <c r="BE6" t="s" s="337">
         <v>18</v>
       </c>
-      <c r="BG6" t="s" s="303">
+      <c r="BF6" t="s" s="338">
         <v>19</v>
       </c>
-      <c r="BH6" t="s" s="304">
+      <c r="BG6" t="s" s="339">
         <v>20</v>
       </c>
-      <c r="BI6" t="s" s="305">
+      <c r="BH6" t="s" s="340">
         <v>21</v>
       </c>
-      <c r="BJ6" t="s" s="306">
+      <c r="BI6" t="s" s="341">
         <v>22</v>
       </c>
-      <c r="BK6" t="s" s="307">
-        <v>11</v>
-      </c>
-      <c r="BL6" t="s" s="308">
+      <c r="BJ6" t="s" s="342">
+        <v>23</v>
+      </c>
+      <c r="BK6" t="s" s="343">
         <v>12</v>
       </c>
-      <c r="BM6" t="s" s="309">
+      <c r="BL6" t="s" s="344">
         <v>13</v>
       </c>
-      <c r="BN6" t="s" s="310">
+      <c r="BM6" t="s" s="345">
         <v>14</v>
       </c>
-      <c r="BO6" t="s" s="311">
+      <c r="BN6" t="s" s="346">
         <v>15</v>
       </c>
-      <c r="BP6" t="s" s="312">
+      <c r="BO6" t="s" s="347">
         <v>16</v>
       </c>
-      <c r="BQ6" t="s" s="313">
+      <c r="BP6" t="s" s="348">
         <v>17</v>
       </c>
-      <c r="BR6" t="s" s="314">
+      <c r="BQ6" t="s" s="349">
         <v>18</v>
       </c>
-      <c r="BS6" t="s" s="315">
+      <c r="BR6" t="s" s="350">
         <v>19</v>
       </c>
-      <c r="BT6" t="s" s="316">
+      <c r="BS6" t="s" s="351">
         <v>20</v>
       </c>
-      <c r="BU6" t="s" s="317">
+      <c r="BT6" t="s" s="352">
         <v>21</v>
       </c>
-      <c r="BV6" t="s" s="318">
+      <c r="BU6" t="s" s="353">
         <v>22</v>
+      </c>
+      <c r="BV6" t="s" s="354">
+        <v>23</v>
+      </c>
+      <c r="BW6" t="s" s="355">
+        <v>12</v>
+      </c>
+      <c r="BX6" t="s" s="356">
+        <v>13</v>
+      </c>
+      <c r="BY6" t="s" s="357">
+        <v>14</v>
+      </c>
+      <c r="BZ6" t="s" s="358">
+        <v>15</v>
+      </c>
+      <c r="CA6" t="s" s="359">
+        <v>16</v>
+      </c>
+      <c r="CB6" t="s" s="360">
+        <v>17</v>
+      </c>
+      <c r="CC6" t="s" s="361">
+        <v>18</v>
+      </c>
+      <c r="CD6" t="s" s="362">
+        <v>19</v>
+      </c>
+      <c r="CE6" t="s" s="363">
+        <v>20</v>
+      </c>
+      <c r="CF6" t="s" s="364">
+        <v>21</v>
+      </c>
+      <c r="CG6" t="s" s="365">
+        <v>22</v>
+      </c>
+      <c r="CH6" t="s" s="366">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>98.0</v>
@@ -3036,16 +3281,52 @@
       <c r="BU7" t="n" s="10">
         <v>123.5</v>
       </c>
-      <c r="BV7" t="s" s="10">
-        <v>25</v>
+      <c r="BV7" t="n" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="BW7" t="n" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="BX7" t="n" s="10">
+        <v>130.3</v>
+      </c>
+      <c r="BY7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG7" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH7" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>100.3</v>
@@ -3260,16 +3541,52 @@
       <c r="BU8" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="BV8" t="s" s="10">
-        <v>25</v>
+      <c r="BV8" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BW8" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BX8" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="BY8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH8" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>100.7</v>
@@ -3484,16 +3801,52 @@
       <c r="BU9" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BV9" t="s" s="10">
-        <v>25</v>
+      <c r="BV9" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BW9" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BX9" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BY9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH9" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>99.9</v>
@@ -3708,16 +4061,52 @@
       <c r="BU10" t="n" s="10">
         <v>110.4</v>
       </c>
-      <c r="BV10" t="s" s="10">
-        <v>25</v>
+      <c r="BV10" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BW10" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BX10" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BY10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG10" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH10" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>100.0</v>
@@ -3932,16 +4321,52 @@
       <c r="BU11" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BV11" t="s" s="10">
-        <v>25</v>
+      <c r="BV11" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BW11" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BX11" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BY11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG11" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH11" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>98.4</v>
@@ -4156,16 +4581,52 @@
       <c r="BU12" t="n" s="10">
         <v>123.5</v>
       </c>
-      <c r="BV12" t="s" s="10">
-        <v>25</v>
+      <c r="BV12" t="n" s="10">
+        <v>130.1</v>
+      </c>
+      <c r="BW12" t="n" s="10">
+        <v>132.8</v>
+      </c>
+      <c r="BX12" t="n" s="10">
+        <v>134.3</v>
+      </c>
+      <c r="BY12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG12" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH12" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>99.3</v>
@@ -4380,16 +4841,52 @@
       <c r="BU13" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BV13" t="s" s="10">
-        <v>25</v>
+      <c r="BV13" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BW13" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BX13" t="n" s="10">
+        <v>120.3</v>
+      </c>
+      <c r="BY13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG13" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH13" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>98.7</v>
@@ -4604,16 +5101,52 @@
       <c r="BU14" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="BV14" t="s" s="10">
-        <v>25</v>
+      <c r="BV14" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="BW14" t="n" s="10">
+        <v>120.3</v>
+      </c>
+      <c r="BX14" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BY14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG14" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH14" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>98.6</v>
@@ -4828,16 +5361,52 @@
       <c r="BU15" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="BV15" t="s" s="10">
-        <v>25</v>
+      <c r="BV15" t="n" s="10">
+        <v>117.1</v>
+      </c>
+      <c r="BW15" t="n" s="10">
+        <v>120.4</v>
+      </c>
+      <c r="BX15" t="n" s="10">
+        <v>121.6</v>
+      </c>
+      <c r="BY15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG15" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH15" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>97.9</v>
@@ -5052,16 +5621,52 @@
       <c r="BU16" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="BV16" t="s" s="10">
-        <v>25</v>
+      <c r="BV16" t="n" s="10">
+        <v>130.5</v>
+      </c>
+      <c r="BW16" t="n" s="10">
+        <v>133.3</v>
+      </c>
+      <c r="BX16" t="n" s="10">
+        <v>135.0</v>
+      </c>
+      <c r="BY16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG16" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH16" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>93.9</v>
@@ -5276,16 +5881,52 @@
       <c r="BU17" t="n" s="10">
         <v>149.7</v>
       </c>
-      <c r="BV17" t="s" s="10">
-        <v>25</v>
+      <c r="BV17" t="n" s="10">
+        <v>173.2</v>
+      </c>
+      <c r="BW17" t="n" s="10">
+        <v>175.5</v>
+      </c>
+      <c r="BX17" t="n" s="10">
+        <v>179.3</v>
+      </c>
+      <c r="BY17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG17" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH17" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>93.1</v>
@@ -5500,16 +6141,52 @@
       <c r="BU18" t="n" s="10">
         <v>151.5</v>
       </c>
-      <c r="BV18" t="s" s="10">
-        <v>25</v>
+      <c r="BV18" t="n" s="10">
+        <v>151.9</v>
+      </c>
+      <c r="BW18" t="n" s="10">
+        <v>180.6</v>
+      </c>
+      <c r="BX18" t="n" s="10">
+        <v>167.6</v>
+      </c>
+      <c r="BY18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG18" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH18" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>101.4</v>
@@ -5724,16 +6401,52 @@
       <c r="BU19" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="BV19" t="s" s="10">
-        <v>25</v>
+      <c r="BV19" t="n" s="10">
+        <v>130.0</v>
+      </c>
+      <c r="BW19" t="n" s="10">
+        <v>138.9</v>
+      </c>
+      <c r="BX19" t="n" s="10">
+        <v>139.1</v>
+      </c>
+      <c r="BY19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG19" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH19" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>99.0</v>
@@ -5948,16 +6661,52 @@
       <c r="BU20" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BV20" t="s" s="10">
-        <v>25</v>
+      <c r="BV20" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="BW20" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="BX20" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BY20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG20" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH20" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>99.6</v>
@@ -6172,16 +6921,52 @@
       <c r="BU21" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BV21" t="s" s="10">
-        <v>25</v>
+      <c r="BV21" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="BW21" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BX21" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BY21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG21" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH21" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>99.6</v>
@@ -6396,16 +7181,52 @@
       <c r="BU22" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BV22" t="s" s="10">
-        <v>25</v>
+      <c r="BV22" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BW22" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="BX22" t="n" s="10">
+        <v>117.1</v>
+      </c>
+      <c r="BY22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH22" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>99.7</v>
@@ -6620,16 +7441,52 @@
       <c r="BU23" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="BV23" t="s" s="10">
-        <v>25</v>
+      <c r="BV23" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BW23" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BX23" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BY23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG23" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH23" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>99.6</v>
@@ -6844,16 +7701,52 @@
       <c r="BU24" t="n" s="10">
         <v>113.0</v>
       </c>
-      <c r="BV24" t="s" s="10">
-        <v>25</v>
+      <c r="BV24" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BW24" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BX24" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="BY24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH24" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>100.2</v>
@@ -7068,16 +7961,52 @@
       <c r="BU25" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="BV25" t="s" s="10">
-        <v>25</v>
+      <c r="BV25" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BW25" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="BX25" t="n" s="10">
+        <v>128.7</v>
+      </c>
+      <c r="BY25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH25" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>86.3</v>
@@ -7292,16 +8221,52 @@
       <c r="BU26" t="n" s="10">
         <v>130.3</v>
       </c>
-      <c r="BV26" t="s" s="10">
-        <v>25</v>
+      <c r="BV26" t="n" s="10">
+        <v>125.1</v>
+      </c>
+      <c r="BW26" t="n" s="10">
+        <v>131.3</v>
+      </c>
+      <c r="BX26" t="n" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="BY26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH26" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>61.8</v>
@@ -7516,16 +8481,52 @@
       <c r="BU27" t="n" s="10">
         <v>149.5</v>
       </c>
-      <c r="BV27" t="s" s="10">
-        <v>25</v>
+      <c r="BV27" t="n" s="10">
+        <v>142.4</v>
+      </c>
+      <c r="BW27" t="n" s="10">
+        <v>159.1</v>
+      </c>
+      <c r="BX27" t="n" s="10">
+        <v>175.8</v>
+      </c>
+      <c r="BY27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG27" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH27" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>98.8</v>
@@ -7740,16 +8741,52 @@
       <c r="BU28" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="BV28" t="s" s="10">
-        <v>25</v>
+      <c r="BV28" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="BW28" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="BX28" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BY28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG28" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH28" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>99.0</v>
@@ -7964,16 +9001,52 @@
       <c r="BU29" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="BV29" t="s" s="10">
-        <v>25</v>
+      <c r="BV29" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BW29" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BX29" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BY29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG29" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH29" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s" s="13">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>101.2</v>
@@ -8188,16 +9261,52 @@
       <c r="BU30" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="BV30" t="s" s="10">
-        <v>25</v>
+      <c r="BV30" t="n" s="10">
+        <v>123.0</v>
+      </c>
+      <c r="BW30" t="n" s="10">
+        <v>129.2</v>
+      </c>
+      <c r="BX30" t="n" s="10">
+        <v>129.3</v>
+      </c>
+      <c r="BY30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG30" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH30" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s" s="13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>94.9</v>
@@ -8412,16 +9521,52 @@
       <c r="BU31" t="n" s="10">
         <v>148.6</v>
       </c>
-      <c r="BV31" t="s" s="10">
-        <v>25</v>
+      <c r="BV31" t="n" s="10">
+        <v>149.8</v>
+      </c>
+      <c r="BW31" t="n" s="10">
+        <v>153.3</v>
+      </c>
+      <c r="BX31" t="n" s="10">
+        <v>156.4</v>
+      </c>
+      <c r="BY31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG31" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH31" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s" s="13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>96.8</v>
@@ -8636,16 +9781,52 @@
       <c r="BU32" t="n" s="10">
         <v>128.8</v>
       </c>
-      <c r="BV32" t="s" s="10">
-        <v>25</v>
+      <c r="BV32" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="BW32" t="n" s="10">
+        <v>132.8</v>
+      </c>
+      <c r="BX32" t="n" s="10">
+        <v>137.2</v>
+      </c>
+      <c r="BY32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG32" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH32" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s" s="13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>100.9</v>
@@ -8860,16 +10041,52 @@
       <c r="BU33" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BV33" t="s" s="10">
-        <v>25</v>
+      <c r="BV33" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BW33" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BX33" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BY33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG33" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH33" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s" s="13">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>100.4</v>
@@ -9084,16 +10301,52 @@
       <c r="BU34" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BV34" t="s" s="10">
-        <v>25</v>
+      <c r="BV34" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BW34" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BX34" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BY34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG34" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH34" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>100.4</v>
@@ -9308,16 +10561,52 @@
       <c r="BU35" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BV35" t="s" s="10">
-        <v>25</v>
+      <c r="BV35" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BW35" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BX35" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BY35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG35" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH35" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s" s="13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>100.7</v>
@@ -9532,16 +10821,52 @@
       <c r="BU36" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="BV36" t="s" s="10">
-        <v>25</v>
+      <c r="BV36" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="BW36" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BX36" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BY36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG36" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH36" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s" s="13">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>100.7</v>
@@ -9756,16 +11081,52 @@
       <c r="BU37" t="n" s="10">
         <v>109.5</v>
       </c>
-      <c r="BV37" t="s" s="10">
-        <v>25</v>
+      <c r="BV37" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BW37" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BX37" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BY37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG37" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH37" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s" s="13">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n" s="10">
         <v>100.4</v>
@@ -9980,16 +11341,52 @@
       <c r="BU38" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="BV38" t="s" s="10">
-        <v>25</v>
+      <c r="BV38" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BW38" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BX38" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BY38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG38" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH38" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" t="n" s="10">
         <v>100.7</v>
@@ -10204,16 +11601,52 @@
       <c r="BU39" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BV39" t="s" s="10">
-        <v>25</v>
+      <c r="BV39" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="BW39" t="n" s="10">
+        <v>113.6</v>
+      </c>
+      <c r="BX39" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BY39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG39" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH39" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n" s="10">
         <v>100.7</v>
@@ -10428,16 +11861,52 @@
       <c r="BU40" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BV40" t="s" s="10">
-        <v>25</v>
+      <c r="BV40" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BW40" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BX40" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BY40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG40" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH40" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s" s="13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" t="n" s="10">
         <v>100.3</v>
@@ -10652,16 +12121,52 @@
       <c r="BU41" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BV41" t="s" s="10">
-        <v>25</v>
+      <c r="BV41" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BW41" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BX41" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BY41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG41" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH41" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s" s="13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" t="n" s="10">
         <v>100.5</v>
@@ -10876,16 +12381,52 @@
       <c r="BU42" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BV42" t="s" s="10">
-        <v>25</v>
+      <c r="BV42" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BW42" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BX42" t="n" s="10">
+        <v>113.6</v>
+      </c>
+      <c r="BY42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG42" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH42" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" t="n" s="10">
         <v>101.0</v>
@@ -11100,16 +12641,52 @@
       <c r="BU43" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BV43" t="s" s="10">
-        <v>25</v>
+      <c r="BV43" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BW43" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BX43" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BY43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG43" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH43" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" t="n" s="10">
         <v>100.9</v>
@@ -11324,16 +12901,52 @@
       <c r="BU44" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BV44" t="s" s="10">
-        <v>25</v>
+      <c r="BV44" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BW44" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BX44" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BY44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG44" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH44" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s" s="13">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" t="n" s="10">
         <v>101.2</v>
@@ -11548,16 +13161,52 @@
       <c r="BU45" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="BV45" t="s" s="10">
-        <v>25</v>
+      <c r="BV45" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BW45" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BX45" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BY45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG45" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH45" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s" s="13">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" t="n" s="10">
         <v>100.6</v>
@@ -11772,16 +13421,52 @@
       <c r="BU46" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BV46" t="s" s="10">
-        <v>25</v>
+      <c r="BV46" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BW46" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BX46" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BY46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG46" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH46" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s" s="13">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" t="n" s="10">
         <v>102.0</v>
@@ -11996,16 +13681,52 @@
       <c r="BU47" t="n" s="10">
         <v>111.6</v>
       </c>
-      <c r="BV47" t="s" s="10">
-        <v>25</v>
+      <c r="BV47" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BW47" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BX47" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BY47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG47" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH47" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s" s="13">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" t="n" s="10">
         <v>101.5</v>
@@ -12220,16 +13941,52 @@
       <c r="BU48" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="BV48" t="s" s="10">
-        <v>25</v>
+      <c r="BV48" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BW48" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BX48" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BY48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG48" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH48" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" t="n" s="10">
         <v>101.3</v>
@@ -12444,16 +14201,52 @@
       <c r="BU49" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="BV49" t="s" s="10">
-        <v>25</v>
+      <c r="BV49" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BW49" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BX49" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BY49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG49" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH49" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" t="n" s="10">
         <v>100.7</v>
@@ -12668,16 +14461,52 @@
       <c r="BU50" t="n" s="10">
         <v>116.2</v>
       </c>
-      <c r="BV50" t="s" s="10">
-        <v>25</v>
+      <c r="BV50" t="n" s="10">
+        <v>116.9</v>
+      </c>
+      <c r="BW50" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BX50" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BY50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG50" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH50" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s" s="13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" t="n" s="10">
         <v>99.9</v>
@@ -12892,16 +14721,52 @@
       <c r="BU51" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BV51" t="s" s="10">
-        <v>25</v>
+      <c r="BV51" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BW51" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BX51" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BY51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG51" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH51" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s" s="13">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n" s="10">
         <v>100.6</v>
@@ -13116,16 +14981,52 @@
       <c r="BU52" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BV52" t="s" s="10">
-        <v>25</v>
+      <c r="BV52" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="BW52" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BX52" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BY52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG52" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH52" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s" s="13">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" t="n" s="10">
         <v>101.4</v>
@@ -13340,16 +15241,52 @@
       <c r="BU53" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BV53" t="s" s="10">
-        <v>25</v>
+      <c r="BV53" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BW53" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="BX53" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BY53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG53" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH53" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" t="n" s="10">
         <v>100.0</v>
@@ -13564,16 +15501,52 @@
       <c r="BU54" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BV54" t="s" s="10">
-        <v>25</v>
+      <c r="BV54" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BW54" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BX54" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BY54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG54" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH54" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="13">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" t="n" s="10">
         <v>101.5</v>
@@ -13788,16 +15761,52 @@
       <c r="BU55" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="BV55" t="s" s="10">
-        <v>25</v>
+      <c r="BV55" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BW55" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="BX55" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BY55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG55" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH55" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s" s="13">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="n" s="10">
         <v>100.5</v>
@@ -14012,16 +16021,52 @@
       <c r="BU56" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BV56" t="s" s="10">
-        <v>25</v>
+      <c r="BV56" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BW56" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="BX56" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BY56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG56" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH56" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s" s="13">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" t="n" s="10">
         <v>100.7</v>
@@ -14236,16 +16281,52 @@
       <c r="BU57" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BV57" t="s" s="10">
-        <v>25</v>
+      <c r="BV57" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BW57" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BX57" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BY57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG57" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH57" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s" s="13">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="n" s="10">
         <v>100.8</v>
@@ -14460,16 +16541,52 @@
       <c r="BU58" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="BV58" t="s" s="10">
-        <v>25</v>
+      <c r="BV58" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BW58" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BX58" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="BY58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG58" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH58" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s" s="13">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" t="n" s="10">
         <v>100.7</v>
@@ -14684,16 +16801,52 @@
       <c r="BU59" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="BV59" t="s" s="10">
-        <v>25</v>
+      <c r="BV59" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BW59" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="BX59" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BY59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG59" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH59" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s" s="13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" t="n" s="10">
         <v>100.3</v>
@@ -14908,16 +17061,52 @@
       <c r="BU60" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BV60" t="s" s="10">
-        <v>25</v>
+      <c r="BV60" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BW60" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BX60" t="n" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="BY60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG60" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH60" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s" s="13">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" t="n" s="10">
         <v>100.4</v>
@@ -15132,16 +17321,52 @@
       <c r="BU61" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BV61" t="s" s="10">
-        <v>25</v>
+      <c r="BV61" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BW61" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BX61" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BY61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG61" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH61" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s" s="13">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" t="n" s="10">
         <v>99.8</v>
@@ -15356,16 +17581,52 @@
       <c r="BU62" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BV62" t="s" s="10">
-        <v>25</v>
+      <c r="BV62" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BW62" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BX62" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="BY62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG62" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH62" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" t="n" s="10">
         <v>100.1</v>
@@ -15580,16 +17841,52 @@
       <c r="BU63" t="n" s="10">
         <v>105.6</v>
       </c>
-      <c r="BV63" t="s" s="10">
-        <v>25</v>
+      <c r="BV63" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BW63" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BX63" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BY63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG63" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH63" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s" s="13">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="n" s="10">
         <v>100.8</v>
@@ -15804,16 +18101,52 @@
       <c r="BU64" t="n" s="10">
         <v>115.7</v>
       </c>
-      <c r="BV64" t="s" s="10">
-        <v>25</v>
+      <c r="BV64" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BW64" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="BX64" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="BY64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG64" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH64" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s" s="13">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" t="n" s="10">
         <v>100.6</v>
@@ -16028,16 +18361,52 @@
       <c r="BU65" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BV65" t="s" s="10">
-        <v>25</v>
+      <c r="BV65" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BW65" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BX65" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="BY65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG65" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH65" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s" s="13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" t="n" s="10">
         <v>100.6</v>
@@ -16252,16 +18621,52 @@
       <c r="BU66" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="BV66" t="s" s="10">
-        <v>25</v>
+      <c r="BV66" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="BW66" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BX66" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BY66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG66" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH66" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s" s="13">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="n" s="10">
         <v>101.3</v>
@@ -16476,16 +18881,52 @@
       <c r="BU67" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BV67" t="s" s="10">
-        <v>25</v>
+      <c r="BV67" t="n" s="10">
+        <v>116.9</v>
+      </c>
+      <c r="BW67" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BX67" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="BY67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG67" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH67" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s" s="13">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="n" s="10">
         <v>100.3</v>
@@ -16700,16 +19141,52 @@
       <c r="BU68" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BV68" t="s" s="10">
-        <v>25</v>
+      <c r="BV68" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BW68" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BX68" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BY68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG68" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH68" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s" s="13">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" t="n" s="10">
         <v>100.9</v>
@@ -16924,16 +19401,52 @@
       <c r="BU69" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BV69" t="s" s="10">
-        <v>25</v>
+      <c r="BV69" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BW69" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BX69" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BY69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG69" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH69" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s" s="13">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="n" s="10">
         <v>101.0</v>
@@ -17148,16 +19661,52 @@
       <c r="BU70" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BV70" t="s" s="10">
-        <v>25</v>
+      <c r="BV70" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BW70" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="BX70" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BY70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG70" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH70" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" t="s" s="13">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" t="n" s="10">
         <v>100.6</v>
@@ -17372,16 +19921,52 @@
       <c r="BU71" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BV71" t="s" s="10">
-        <v>25</v>
+      <c r="BV71" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BW71" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BX71" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BY71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG71" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH71" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s" s="13">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C72" t="n" s="10">
         <v>101.1</v>
@@ -17596,16 +20181,52 @@
       <c r="BU72" t="n" s="10">
         <v>113.8</v>
       </c>
-      <c r="BV72" t="s" s="10">
-        <v>25</v>
+      <c r="BV72" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BW72" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BX72" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BY72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG72" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH72" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s" s="13">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" t="n" s="10">
         <v>101.9</v>
@@ -17820,16 +20441,52 @@
       <c r="BU73" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BV73" t="s" s="10">
-        <v>25</v>
+      <c r="BV73" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BW73" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="BX73" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BY73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG73" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH73" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s" s="13">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" t="n" s="10">
         <v>100.1</v>
@@ -18044,16 +20701,52 @@
       <c r="BU74" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="BV74" t="s" s="10">
-        <v>25</v>
+      <c r="BV74" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="BW74" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="BX74" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="BY74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG74" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH74" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s" s="13">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="n" s="10">
         <v>100.8</v>
@@ -18268,16 +20961,52 @@
       <c r="BU75" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BV75" t="s" s="10">
-        <v>25</v>
+      <c r="BV75" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BW75" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BX75" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BY75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG75" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH75" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s" s="13">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="n" s="10">
         <v>101.2</v>
@@ -18492,16 +21221,52 @@
       <c r="BU76" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BV76" t="s" s="10">
-        <v>25</v>
+      <c r="BV76" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BW76" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BX76" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BY76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG76" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH76" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s" s="13">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" t="n" s="10">
         <v>101.0</v>
@@ -18716,16 +21481,52 @@
       <c r="BU77" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="BV77" t="s" s="10">
-        <v>25</v>
+      <c r="BV77" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BW77" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BX77" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="BY77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG77" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH77" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s" s="13">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" t="n" s="10">
         <v>100.6</v>
@@ -18940,16 +21741,52 @@
       <c r="BU78" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="BV78" t="s" s="10">
-        <v>25</v>
+      <c r="BV78" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="BW78" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BX78" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="BY78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG78" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH78" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s" s="13">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" t="n" s="10">
         <v>100.9</v>
@@ -19164,16 +22001,52 @@
       <c r="BU79" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BV79" t="s" s="10">
-        <v>25</v>
+      <c r="BV79" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BW79" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BX79" t="n" s="10">
+        <v>117.8</v>
+      </c>
+      <c r="BY79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG79" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH79" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s" s="13">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" t="n" s="10">
         <v>100.6</v>
@@ -19388,16 +22261,52 @@
       <c r="BU80" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BV80" t="s" s="10">
-        <v>25</v>
+      <c r="BV80" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BW80" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BX80" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BY80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG80" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH80" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s" s="13">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" t="n" s="10">
         <v>101.0</v>
@@ -19612,16 +22521,52 @@
       <c r="BU81" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BV81" t="s" s="10">
-        <v>25</v>
+      <c r="BV81" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BW81" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BX81" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BY81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG81" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH81" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s" s="13">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" t="n" s="10">
         <v>101.5</v>
@@ -19836,16 +22781,52 @@
       <c r="BU82" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BV82" t="s" s="10">
-        <v>25</v>
+      <c r="BV82" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BW82" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="BX82" t="n" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="BY82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG82" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH82" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s" s="13">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C83" t="n" s="10">
         <v>100.6</v>
@@ -20060,16 +23041,52 @@
       <c r="BU83" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BV83" t="s" s="10">
-        <v>25</v>
+      <c r="BV83" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BW83" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BX83" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BY83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG83" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH83" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s" s="13">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" t="n" s="10">
         <v>100.9</v>
@@ -20284,16 +23301,52 @@
       <c r="BU84" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BV84" t="s" s="10">
-        <v>25</v>
+      <c r="BV84" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BW84" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BX84" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BY84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG84" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH84" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s" s="13">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" t="n" s="10">
         <v>101.0</v>
@@ -20508,16 +23561,52 @@
       <c r="BU85" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BV85" t="s" s="10">
-        <v>25</v>
+      <c r="BV85" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BW85" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BX85" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BY85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG85" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH85" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s" s="13">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" t="n" s="10">
         <v>99.9</v>
@@ -20732,16 +23821,52 @@
       <c r="BU86" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="BV86" t="s" s="10">
-        <v>25</v>
+      <c r="BV86" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BW86" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BX86" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BY86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG86" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH86" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" t="n" s="10">
         <v>100.4</v>
@@ -20956,16 +24081,52 @@
       <c r="BU87" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="BV87" t="s" s="10">
-        <v>25</v>
+      <c r="BV87" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BW87" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="BX87" t="n" s="10">
+        <v>119.7</v>
+      </c>
+      <c r="BY87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG87" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH87" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s" s="13">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" t="n" s="10">
         <v>101.3</v>
@@ -21180,16 +24341,52 @@
       <c r="BU88" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BV88" t="s" s="10">
-        <v>25</v>
+      <c r="BV88" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BW88" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BX88" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BY88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG88" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH88" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s" s="13">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" t="n" s="10">
         <v>100.4</v>
@@ -21404,16 +24601,52 @@
       <c r="BU89" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BV89" t="s" s="10">
-        <v>25</v>
+      <c r="BV89" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BW89" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BX89" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BY89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG89" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH89" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s" s="13">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" t="n" s="10">
         <v>101.0</v>
@@ -21628,16 +24861,52 @@
       <c r="BU90" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="BV90" t="s" s="10">
-        <v>25</v>
+      <c r="BV90" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BW90" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BX90" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BY90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG90" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH90" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s" s="13">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C91" t="n" s="10">
         <v>100.0</v>
@@ -21852,16 +25121,52 @@
       <c r="BU91" t="n" s="10">
         <v>105.6</v>
       </c>
-      <c r="BV91" t="s" s="10">
-        <v>25</v>
+      <c r="BV91" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="BW91" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BX91" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BY91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG91" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH91" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" t="s" s="13">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C92" t="n" s="10">
         <v>100.3</v>
@@ -22076,16 +25381,52 @@
       <c r="BU92" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="BV92" t="s" s="10">
-        <v>25</v>
+      <c r="BV92" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="BW92" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BX92" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BY92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG92" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH92" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C93" t="n" s="10">
         <v>95.6</v>
@@ -22300,16 +25641,52 @@
       <c r="BU93" t="n" s="10">
         <v>151.6</v>
       </c>
-      <c r="BV93" t="s" s="10">
-        <v>25</v>
+      <c r="BV93" t="n" s="10">
+        <v>179.8</v>
+      </c>
+      <c r="BW93" t="n" s="10">
+        <v>180.5</v>
+      </c>
+      <c r="BX93" t="n" s="10">
+        <v>184.4</v>
+      </c>
+      <c r="BY93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG93" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH93" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s" s="13">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" t="n" s="10">
         <v>95.1</v>
@@ -22524,16 +25901,52 @@
       <c r="BU94" t="n" s="10">
         <v>157.1</v>
       </c>
-      <c r="BV94" t="s" s="10">
-        <v>25</v>
+      <c r="BV94" t="n" s="10">
+        <v>188.8</v>
+      </c>
+      <c r="BW94" t="n" s="10">
+        <v>189.1</v>
+      </c>
+      <c r="BX94" t="n" s="10">
+        <v>193.3</v>
+      </c>
+      <c r="BY94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG94" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH94" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s" s="13">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" t="n" s="10">
         <v>107.3</v>
@@ -22748,16 +26161,52 @@
       <c r="BU95" t="n" s="10">
         <v>137.5</v>
       </c>
-      <c r="BV95" t="s" s="10">
-        <v>25</v>
+      <c r="BV95" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="BW95" t="n" s="10">
+        <v>147.0</v>
+      </c>
+      <c r="BX95" t="n" s="10">
+        <v>147.0</v>
+      </c>
+      <c r="BY95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG95" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH95" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s" s="13">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" t="n" s="10">
         <v>98.1</v>
@@ -22972,16 +26421,52 @@
       <c r="BU96" t="n" s="10">
         <v>179.3</v>
       </c>
-      <c r="BV96" t="s" s="10">
-        <v>25</v>
+      <c r="BV96" t="n" s="10">
+        <v>228.5</v>
+      </c>
+      <c r="BW96" t="n" s="10">
+        <v>202.3</v>
+      </c>
+      <c r="BX96" t="n" s="10">
+        <v>204.8</v>
+      </c>
+      <c r="BY96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG96" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH96" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s" s="13">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" t="n" s="10">
         <v>89.8</v>
@@ -23196,16 +26681,52 @@
       <c r="BU97" t="n" s="10">
         <v>179.7</v>
       </c>
-      <c r="BV97" t="s" s="10">
-        <v>25</v>
+      <c r="BV97" t="n" s="10">
+        <v>212.8</v>
+      </c>
+      <c r="BW97" t="n" s="10">
+        <v>218.2</v>
+      </c>
+      <c r="BX97" t="n" s="10">
+        <v>214.7</v>
+      </c>
+      <c r="BY97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG97" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH97" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s" s="13">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" t="n" s="10">
         <v>85.5</v>
@@ -23420,16 +26941,52 @@
       <c r="BU98" t="n" s="10">
         <v>278.9</v>
       </c>
-      <c r="BV98" t="s" s="10">
-        <v>25</v>
+      <c r="BV98" t="n" s="10">
+        <v>319.8</v>
+      </c>
+      <c r="BW98" t="n" s="10">
+        <v>330.8</v>
+      </c>
+      <c r="BX98" t="n" s="10">
+        <v>345.0</v>
+      </c>
+      <c r="BY98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG98" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH98" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s" s="13">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" t="n" s="10">
         <v>89.2</v>
@@ -23644,25 +27201,61 @@
       <c r="BU99" t="n" s="10">
         <v>259.4</v>
       </c>
-      <c r="BV99" t="s" s="10">
-        <v>25</v>
+      <c r="BV99" t="n" s="10">
+        <v>324.7</v>
+      </c>
+      <c r="BW99" t="n" s="10">
+        <v>321.4</v>
+      </c>
+      <c r="BX99" t="n" s="10">
+        <v>285.2</v>
+      </c>
+      <c r="BY99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="BZ99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CA99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CB99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CC99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CD99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CE99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CF99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CG99" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="CH99" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="12">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:BV2"/>
-    <mergeCell ref="A3:BV3"/>
-    <mergeCell ref="A4:BV4"/>
+    <mergeCell ref="A2:CH2"/>
+    <mergeCell ref="A3:CH3"/>
+    <mergeCell ref="A4:CH4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="O5:Z5"/>
@@ -23670,11 +27263,12 @@
     <mergeCell ref="AM5:AX5"/>
     <mergeCell ref="AY5:BJ5"/>
     <mergeCell ref="BK5:BV5"/>
-    <mergeCell ref="A1:BV1"/>
+    <mergeCell ref="BW5:CH5"/>
+    <mergeCell ref="A1:CH1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:29:08&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:05:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>